--- a/Analysis/Risikoanalyse.xlsx
+++ b/Analysis/Risikoanalyse.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Mørch\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Sygdom</t>
   </si>
@@ -78,6 +74,15 @@
   </si>
   <si>
     <t>Forsinkelse i forhold til planen</t>
+  </si>
+  <si>
+    <t>Mangel på grupperum</t>
+  </si>
+  <si>
+    <t>Meget Høj</t>
+  </si>
+  <si>
+    <t>Arbejdskvalitet stærkt nedsat</t>
   </si>
 </sst>
 </file>
@@ -429,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +447,7 @@
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -453,42 +458,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -497,36 +502,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
